--- a/2_семестр ВЕСНА/ИНФМенеджмент/Лекция_4.xlsx
+++ b/2_семестр ВЕСНА/ИНФМенеджмент/Лекция_4.xlsx
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="95">
   <si>
     <t>Параметр</t>
   </si>
@@ -360,10 +360,16 @@
     <t>Частота процессора</t>
   </si>
   <si>
-    <t xml:space="preserve">                Следовательно необходимо выбрать второй Wi-Fi роутер</t>
-  </si>
-  <si>
     <t>Вывод:  Так как Kk&lt;1, то выбранный товар MIKROTIK не конкурентоспобен.</t>
+  </si>
+  <si>
+    <t>Выполнил: студент группы ИТ-42 Курбатова С.А.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                Следовательно необходимо выбрать второй Wi-Fi роутер с маркой: TP-Link. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                MIKROTIK будет конкурентоспособен при цене ниже чем у приобретаемого товара. </t>
   </si>
 </sst>
 </file>
@@ -459,7 +465,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -517,11 +523,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -533,122 +559,128 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -946,26 +978,26 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17" t="s">
+      <c r="E1" s="30"/>
+      <c r="F1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17" t="s">
+      <c r="G1" s="30"/>
+      <c r="H1" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17" t="s">
+      <c r="I1" s="30"/>
+      <c r="J1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17" t="s">
+      <c r="K1" s="30"/>
+      <c r="L1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="17"/>
+      <c r="M1" s="30"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
@@ -1195,51 +1227,51 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17" t="s">
+      <c r="E9" s="30"/>
+      <c r="F9" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17" t="s">
+      <c r="G9" s="30"/>
+      <c r="H9" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17" t="s">
+      <c r="I9" s="30"/>
+      <c r="J9" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17" t="s">
+      <c r="K9" s="30"/>
+      <c r="L9" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="M9" s="17"/>
+      <c r="M9" s="30"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="30">
         <v>5</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17">
+      <c r="E10" s="30"/>
+      <c r="F10" s="30">
         <v>2</v>
       </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17">
+      <c r="G10" s="30"/>
+      <c r="H10" s="30">
         <v>4</v>
       </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17">
+      <c r="I10" s="30"/>
+      <c r="J10" s="30">
         <v>3</v>
       </c>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17">
+      <c r="K10" s="30"/>
+      <c r="L10" s="30">
         <v>2</v>
       </c>
-      <c r="M10" s="17"/>
+      <c r="M10" s="30"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1391,21 +1423,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1426,40 +1458,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18" t="s">
+      <c r="E3" s="30"/>
+      <c r="F3" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="31" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1476,9 +1508,9 @@
       <c r="E4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="31"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
@@ -1755,30 +1787,30 @@
       </c>
     </row>
     <row r="23" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="K23" s="18" t="s">
+      <c r="K23" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
     </row>
     <row r="24" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="18"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
     </row>
     <row r="25" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="18"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1798,894 +1830,911 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N54"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:M20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" style="9" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="7" style="9" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" style="9" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" style="9" customWidth="1"/>
-    <col min="10" max="10" width="4.5703125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="9"/>
-    <col min="12" max="12" width="10.140625" style="9" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="6" style="7" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="7" style="7" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="4.5703125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="7"/>
+    <col min="12" max="12" width="10.140625" style="7" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
     </row>
     <row r="5" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="22" t="s">
+      <c r="D5" s="39"/>
+      <c r="E5" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="22" t="s">
+      <c r="F5" s="39"/>
+      <c r="G5" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="23"/>
-      <c r="I5" s="22" t="s">
+      <c r="H5" s="39"/>
+      <c r="I5" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="J5" s="23"/>
-      <c r="K5" s="22" t="s">
+      <c r="J5" s="39"/>
+      <c r="K5" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="23"/>
-      <c r="M5" s="11"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="44"/>
+      <c r="B6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="I6" s="32" t="s">
+      <c r="I6" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="J6" s="32" t="s">
+      <c r="J6" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="K6" s="32" t="s">
+      <c r="K6" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="L6" s="32" t="s">
+      <c r="L6" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="M6" s="11"/>
+      <c r="M6" s="9"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25">
+      <c r="A7" s="15">
         <v>1</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="13">
         <v>580</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="13">
         <v>3</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="13">
         <v>1</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="13">
         <v>4</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="13">
         <v>5</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="13">
         <v>36</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="13">
         <v>10</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="13">
         <v>3950</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="13">
         <v>8</v>
       </c>
-      <c r="M7" s="11"/>
+      <c r="M7" s="9"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38">
+      <c r="A8" s="24">
         <v>2</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="40">
+      <c r="C8" s="26">
         <v>600</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="27">
         <v>4</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="27">
         <v>1</v>
       </c>
-      <c r="F8" s="41">
+      <c r="F8" s="27">
         <v>4</v>
       </c>
-      <c r="G8" s="41" t="s">
+      <c r="G8" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="41">
+      <c r="H8" s="27">
         <v>5</v>
       </c>
-      <c r="I8" s="41">
+      <c r="I8" s="27">
         <v>6</v>
       </c>
-      <c r="J8" s="41">
+      <c r="J8" s="27">
         <v>7</v>
       </c>
-      <c r="K8" s="42">
+      <c r="K8" s="28">
         <v>15150</v>
       </c>
-      <c r="L8" s="41">
+      <c r="L8" s="27">
         <v>6</v>
       </c>
-      <c r="M8" s="11"/>
+      <c r="M8" s="9"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="25">
+      <c r="A9" s="15">
         <v>3</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="13">
         <v>716</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="13">
         <v>7</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="13">
         <v>4</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="13">
         <v>9</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="13">
         <v>10</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="13">
         <v>6</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="13">
         <v>7</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="13">
         <v>21790</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="13">
         <v>4</v>
       </c>
-      <c r="M9" s="11"/>
+      <c r="M9" s="9"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="25">
+      <c r="A10" s="15">
         <v>4</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="13">
         <v>650</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="13">
         <v>9</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="13">
         <v>1</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="13">
         <v>4</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="13">
         <v>8</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="13">
         <v>6</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="13">
         <v>7</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="13">
         <v>9990</v>
       </c>
-      <c r="L10" s="15">
+      <c r="L10" s="13">
         <v>9</v>
       </c>
-      <c r="M10" s="11"/>
+      <c r="M10" s="9"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="38">
+      <c r="A11" s="24">
         <v>5</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="41">
+      <c r="C11" s="27">
         <v>1200</v>
       </c>
-      <c r="D11" s="41">
+      <c r="D11" s="27">
         <v>10</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="27">
         <v>2</v>
       </c>
-      <c r="F11" s="41">
+      <c r="F11" s="27">
         <v>8</v>
       </c>
-      <c r="G11" s="41" t="s">
+      <c r="G11" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="H11" s="41">
+      <c r="H11" s="27">
         <v>9</v>
       </c>
-      <c r="I11" s="41">
+      <c r="I11" s="27">
         <v>36</v>
       </c>
-      <c r="J11" s="41">
+      <c r="J11" s="27">
         <v>10</v>
       </c>
-      <c r="K11" s="41">
+      <c r="K11" s="27">
         <v>5440</v>
       </c>
-      <c r="L11" s="41">
+      <c r="L11" s="27">
         <v>8</v>
       </c>
-      <c r="M11" s="11"/>
+      <c r="M11" s="9"/>
     </row>
     <row r="12" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="29" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="30" t="s">
+      <c r="D12" s="34"/>
+      <c r="E12" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="30" t="s">
+      <c r="F12" s="34"/>
+      <c r="G12" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="20"/>
-      <c r="I12" s="30" t="s">
+      <c r="H12" s="34"/>
+      <c r="I12" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="J12" s="20"/>
-      <c r="K12" s="30" t="s">
+      <c r="J12" s="34"/>
+      <c r="K12" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="L12" s="20"/>
-      <c r="M12" s="11"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="9"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="33" t="s">
+      <c r="A13" s="16"/>
+      <c r="B13" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="41">
         <v>4</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19">
+      <c r="D13" s="41"/>
+      <c r="E13" s="41">
         <v>2</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19">
+      <c r="F13" s="41"/>
+      <c r="G13" s="41">
         <v>5</v>
       </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19">
+      <c r="H13" s="41"/>
+      <c r="I13" s="41">
         <v>3</v>
       </c>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19">
+      <c r="J13" s="41"/>
+      <c r="K13" s="41">
         <v>5</v>
       </c>
-      <c r="L13" s="19"/>
-      <c r="M13" s="14" t="s">
+      <c r="L13" s="41"/>
+      <c r="M13" s="12" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="31">
+      <c r="A14" s="19">
         <v>1</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="41">
         <f>$C$13*D7</f>
         <v>12</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19">
+      <c r="D14" s="41"/>
+      <c r="E14" s="41">
         <f>$E$13*F7</f>
         <v>8</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19">
+      <c r="F14" s="41"/>
+      <c r="G14" s="41">
         <f>$G$13*H7</f>
         <v>25</v>
       </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19">
+      <c r="H14" s="41"/>
+      <c r="I14" s="41">
         <f>$I$13*J7</f>
         <v>30</v>
       </c>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19">
+      <c r="J14" s="41"/>
+      <c r="K14" s="41">
         <f>$K$13*L7</f>
         <v>40</v>
       </c>
-      <c r="L14" s="19"/>
-      <c r="M14" s="11">
+      <c r="L14" s="41"/>
+      <c r="M14" s="9">
         <f>SUM(C14:K14)</f>
         <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="36">
+      <c r="A15" s="23">
         <v>2</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="34">
+      <c r="B15" s="43"/>
+      <c r="C15" s="40">
         <f>$C$13*D8</f>
         <v>16</v>
       </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34">
+      <c r="D15" s="40"/>
+      <c r="E15" s="40">
         <f>$E$13*F8</f>
         <v>8</v>
       </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34">
+      <c r="F15" s="40"/>
+      <c r="G15" s="40">
         <f>$G$13*H8</f>
         <v>25</v>
       </c>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34">
+      <c r="H15" s="40"/>
+      <c r="I15" s="40">
         <f>$I$13*J8</f>
         <v>21</v>
       </c>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34">
+      <c r="J15" s="40"/>
+      <c r="K15" s="40">
         <f>$K$13*L8</f>
         <v>30</v>
       </c>
-      <c r="L15" s="34"/>
-      <c r="M15" s="35">
+      <c r="L15" s="40"/>
+      <c r="M15" s="22">
         <f t="shared" ref="M15:M18" si="0">SUM(C15:K15)</f>
         <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="31">
+      <c r="A16" s="19">
         <v>3</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="19">
+      <c r="B16" s="43"/>
+      <c r="C16" s="41">
         <f>$C$13*D9</f>
         <v>28</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19">
+      <c r="D16" s="41"/>
+      <c r="E16" s="41">
         <f>$E$13*F9</f>
         <v>18</v>
       </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19">
+      <c r="F16" s="41"/>
+      <c r="G16" s="41">
         <f>$G$13*H9</f>
         <v>50</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19">
+      <c r="H16" s="41"/>
+      <c r="I16" s="41">
         <f>$I$13*J9</f>
         <v>21</v>
       </c>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19">
+      <c r="J16" s="41"/>
+      <c r="K16" s="41">
         <f>$K$13*L9</f>
         <v>20</v>
       </c>
-      <c r="L16" s="19"/>
-      <c r="M16" s="11">
+      <c r="L16" s="41"/>
+      <c r="M16" s="9">
         <f t="shared" si="0"/>
         <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="31">
+      <c r="A17" s="19">
         <v>4</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="19">
+      <c r="B17" s="43"/>
+      <c r="C17" s="41">
         <f>$C$13*D10</f>
         <v>36</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19">
+      <c r="D17" s="41"/>
+      <c r="E17" s="41">
         <f>$E$13*F10</f>
         <v>8</v>
       </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19">
+      <c r="F17" s="41"/>
+      <c r="G17" s="41">
         <f>$G$13*H10</f>
         <v>40</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19">
+      <c r="H17" s="41"/>
+      <c r="I17" s="41">
         <f>$I$13*J10</f>
         <v>21</v>
       </c>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19">
+      <c r="J17" s="41"/>
+      <c r="K17" s="41">
         <f>$K$13*L10</f>
         <v>45</v>
       </c>
-      <c r="L17" s="19"/>
-      <c r="M17" s="11">
+      <c r="L17" s="41"/>
+      <c r="M17" s="9">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="36">
+      <c r="A18" s="23">
         <v>5</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="34">
+      <c r="B18" s="43"/>
+      <c r="C18" s="40">
         <f>$C$13*D11</f>
         <v>40</v>
       </c>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34">
+      <c r="D18" s="40"/>
+      <c r="E18" s="40">
         <f>$E$13*F11</f>
         <v>16</v>
       </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34">
+      <c r="F18" s="40"/>
+      <c r="G18" s="40">
         <f>$G$13*H11</f>
         <v>45</v>
       </c>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34">
+      <c r="H18" s="40"/>
+      <c r="I18" s="40">
         <f>$I$13*J11</f>
         <v>30</v>
       </c>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34">
+      <c r="J18" s="40"/>
+      <c r="K18" s="40">
         <f>$K$13*L11</f>
         <v>40</v>
       </c>
-      <c r="L18" s="34"/>
-      <c r="M18" s="35">
+      <c r="L18" s="40"/>
+      <c r="M18" s="22">
         <f t="shared" si="0"/>
         <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
     </row>
     <row r="22" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20" t="s">
+      <c r="E22" s="34"/>
+      <c r="F22" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="29" t="s">
+      <c r="G22" s="34"/>
+      <c r="H22" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="I22" s="29" t="s">
+      <c r="I22" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J22" s="20" t="s">
+      <c r="J22" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="K22" s="20"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="18" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="34">
         <v>600</v>
       </c>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20">
+      <c r="E24" s="34"/>
+      <c r="F24" s="34">
         <v>1200</v>
       </c>
-      <c r="G24" s="20"/>
-      <c r="H24" s="9">
+      <c r="G24" s="34"/>
+      <c r="H24" s="7">
         <f>D24/F24</f>
         <v>0.5</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="7">
         <v>4</v>
       </c>
-      <c r="J24" s="20">
+      <c r="J24" s="34">
         <f>H24*I24</f>
         <v>2</v>
       </c>
-      <c r="K24" s="20"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34">
+        <f>SUM(J24:K27)</f>
+        <v>26.5</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="34">
         <v>1</v>
       </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20">
+      <c r="E25" s="34"/>
+      <c r="F25" s="34">
         <v>2</v>
       </c>
-      <c r="G25" s="20"/>
-      <c r="H25" s="9">
+      <c r="G25" s="34"/>
+      <c r="H25" s="7">
         <f>F25/D25</f>
         <v>2</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="7">
         <v>2</v>
       </c>
-      <c r="J25" s="20">
+      <c r="J25" s="34">
         <f t="shared" ref="J25:J27" si="1">H25*I25</f>
         <v>4</v>
       </c>
-      <c r="K25" s="20"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D26" s="34">
         <v>300</v>
       </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20">
+      <c r="E26" s="34"/>
+      <c r="F26" s="34">
         <v>1200</v>
       </c>
-      <c r="G26" s="20"/>
-      <c r="H26" s="9">
+      <c r="G26" s="34"/>
+      <c r="H26" s="7">
         <f>F26/D26</f>
         <v>4</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="7">
         <v>5</v>
       </c>
-      <c r="J26" s="20">
+      <c r="J26" s="34">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K26" s="20"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D27" s="34">
         <v>6</v>
       </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20">
+      <c r="E27" s="34"/>
+      <c r="F27" s="34">
         <v>36</v>
       </c>
-      <c r="G27" s="20"/>
-      <c r="H27" s="9">
+      <c r="G27" s="34"/>
+      <c r="H27" s="7">
         <f>D27/F27</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="7">
         <v>3</v>
       </c>
-      <c r="J27" s="20">
+      <c r="J27" s="34">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="K27" s="20"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D29" s="34">
         <v>15150</v>
       </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20">
+      <c r="E29" s="34"/>
+      <c r="F29" s="34">
         <v>5440</v>
       </c>
-      <c r="G29" s="20"/>
-      <c r="H29" s="9">
+      <c r="G29" s="34"/>
+      <c r="H29" s="7">
         <f>D29/F29</f>
         <v>2.7849264705882355</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" s="7">
         <v>5</v>
       </c>
-      <c r="J29" s="43">
+      <c r="J29" s="33">
         <f>H29*I29</f>
         <v>13.924632352941178</v>
       </c>
-      <c r="K29" s="43"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="29">
+        <f>SUM(J29:K30)</f>
+        <v>13.924632352941178</v>
+      </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="I31" s="9" t="s">
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="I31" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J31" s="43">
-        <f>SUM(J24:K27)/COUNT(J24:K27)</f>
+      <c r="J31" s="33">
+        <f>L24/COUNT(J24:K27)</f>
         <v>6.625</v>
       </c>
-      <c r="K31" s="20"/>
+      <c r="K31" s="34"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="I32" s="9" t="s">
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="I32" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="J32" s="43">
-        <f>J29/1</f>
+      <c r="J32" s="33">
+        <f>L29/1</f>
         <v>13.924632352941178</v>
       </c>
-      <c r="K32" s="20"/>
+      <c r="K32" s="34"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="I33" s="9" t="s">
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="I33" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="J33" s="43">
+      <c r="J33" s="33">
         <f>J31/J32</f>
         <v>0.47577557755775574</v>
       </c>
-      <c r="K33" s="43"/>
+      <c r="K33" s="33"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="45"/>
+      <c r="A34" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="B35" s="45"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="45"/>
-      <c r="K35" s="45"/>
+      <c r="A35" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
       <c r="L35"/>
       <c r="M35"/>
       <c r="N35"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36"/>
-      <c r="J36"/>
-      <c r="K36"/>
+      <c r="A36" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
       <c r="L36"/>
       <c r="M36"/>
       <c r="N36"/>
@@ -2695,9 +2744,9 @@
       <c r="C37"/>
       <c r="D37"/>
       <c r="E37"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="8"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
       <c r="I37"/>
       <c r="J37"/>
       <c r="K37"/>
@@ -2708,16 +2757,18 @@
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B38"/>
       <c r="C38"/>
-      <c r="D38"/>
+      <c r="D38" s="6"/>
       <c r="E38"/>
       <c r="F38"/>
-      <c r="G38"/>
-      <c r="H38"/>
-      <c r="I38"/>
-      <c r="J38"/>
-      <c r="K38"/>
-      <c r="L38"/>
-      <c r="M38"/>
+      <c r="G38" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="45"/>
       <c r="N38"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -2726,13 +2777,13 @@
       <c r="D39" s="6"/>
       <c r="E39"/>
       <c r="F39"/>
-      <c r="G39"/>
-      <c r="H39"/>
-      <c r="I39"/>
-      <c r="J39"/>
-      <c r="K39"/>
-      <c r="L39"/>
-      <c r="M39"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="46"/>
+      <c r="M39" s="46"/>
       <c r="N39"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -2741,13 +2792,13 @@
       <c r="D40" s="6"/>
       <c r="E40"/>
       <c r="F40"/>
-      <c r="G40"/>
-      <c r="H40"/>
-      <c r="I40"/>
-      <c r="J40"/>
-      <c r="K40"/>
-      <c r="L40"/>
-      <c r="M40"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="47"/>
+      <c r="M40" s="47"/>
       <c r="N40"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -2768,7 +2819,7 @@
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B42"/>
       <c r="C42"/>
-      <c r="D42" s="6"/>
+      <c r="D42"/>
       <c r="E42"/>
       <c r="F42"/>
       <c r="G42"/>
@@ -2796,8 +2847,8 @@
       <c r="N43"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B44"/>
-      <c r="C44"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
       <c r="D44"/>
       <c r="E44"/>
       <c r="F44"/>
@@ -2826,8 +2877,8 @@
       <c r="N45"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
+      <c r="B46"/>
+      <c r="C46"/>
       <c r="D46"/>
       <c r="E46"/>
       <c r="F46"/>
@@ -2945,82 +2996,18 @@
       <c r="M53"/>
       <c r="N53"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B54"/>
-      <c r="C54"/>
-      <c r="D54"/>
-      <c r="E54"/>
-      <c r="F54"/>
-      <c r="G54"/>
-      <c r="H54"/>
-      <c r="I54"/>
-      <c r="J54"/>
-      <c r="K54"/>
-      <c r="L54"/>
-      <c r="M54"/>
-      <c r="N54"/>
-    </row>
   </sheetData>
-  <mergeCells count="80">
-    <mergeCell ref="A35:K35"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="A34:K34"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="B23:K23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="A20:M20"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
+  <mergeCells count="85">
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="G39:M39"/>
+    <mergeCell ref="G40:M40"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="A4:M4"/>
@@ -3037,11 +3024,65 @@
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="E12:F12"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="A20:M20"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="B23:K23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="A35:K35"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="A34:K34"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="J32:K32"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
